--- a/medicine/Mort/Cimetière_militaire_Calvaire_Essex/Cimetière_militaire_Calvaire_Essex.xlsx
+++ b/medicine/Mort/Cimetière_militaire_Calvaire_Essex/Cimetière_militaire_Calvaire_Essex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_Calvaire_Essex</t>
+          <t>Cimetière_militaire_Calvaire_Essex</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le cimetière militaire Calvaire Essex ou Calvaire (Essex) Farm Cemetery[1] est un cimetière militaire britannique de soldats de la Première Guerre mondiale, situé dans le village belge de Ploegsteert, ( Comines-Warneton ). Le cimetière est situé à 1,7 km au sud-est du centre du village. Il a été conçu par George Goldsmith et a un plan en forme de L, largement bordé par un mur de briques. La Croix du Sacrifice est près de l'entrée.
+Le cimetière militaire Calvaire Essex ou Calvaire (Essex) Farm Cemetery est un cimetière militaire britannique de soldats de la Première Guerre mondiale, situé dans le village belge de Ploegsteert, ( Comines-Warneton ). Le cimetière est situé à 1,7 km au sud-est du centre du village. Il a été conçu par George Goldsmith et a un plan en forme de L, largement bordé par un mur de briques. La Croix du Sacrifice est près de l'entrée.
 218 Britanniques y sont enterrés.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_Calvaire_Essex</t>
+          <t>Cimetière_militaire_Calvaire_Essex</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière régimentaire a été établi à côté d'un bâtiment surnommé Essex House. Les 2nd Essex et 2nd Monmouthshire Regiments ont commencé à enterrer leurs morts ici en novembre 1914. Cela a été suivi par le 9th Royal Fusiliers et le 11th Middlesex Regiment, puis le 7th Suffolk et le 9th Essex Regiment, puis le 6th Buffs, le 1/7th et le 1/8th Worcestershire Regiment . Enfin, le cimetière est complété par le 11th Queen's Royal West Surrey et le 10th Royal West Kent Regiment en juillet 1916. Plus tard, 2 autres victimes ont été enterrées. Lors de l'offensive de printemps allemande au printemps 1918, la zone fut occupée par eux du 10 avril au 29 septembre.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_Calvaire_Essex</t>
+          <t>Cimetière_militaire_Calvaire_Essex</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,11 +560,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnel militaire distingué
-Gerald Charles Binsteed, major du régiment d'Essex a reçu la Croix militaire (MC).
-J. Beagin, caporal du Worcestershire Regiment, a reçu la Médaille de conduite distinguée (DCM).
-Personnel militaire mineur
-l'artilleur John Francis Saunders et les soldats Arthur William Day, John Seaman et H. Shaw avaient 16 ans lorsqu'ils ont été tués au combat.
+          <t>Personnel militaire distingué</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gerald Charles Binsteed, major du régiment d'Essex a reçu la Croix militaire (MC).
+J. Beagin, caporal du Worcestershire Regiment, a reçu la Médaille de conduite distinguée (DCM).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_Calvaire_Essex</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_Calvaire_Essex</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tombes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnel militaire mineur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>l'artilleur John Francis Saunders et les soldats Arthur William Day, John Seaman et H. Shaw avaient 16 ans lorsqu'ils ont été tués au combat.
 les soldats Stephen Alfred Barnes, A. Hill, Arthur Frederick Huckstep et Albert John Leat avaient 17 ans lorsqu'ils sont tombés au combat.</t>
         </is>
       </c>
